--- a/biology/Botanique/Strobilanthes/Strobilanthes.xlsx
+++ b/biology/Botanique/Strobilanthes/Strobilanthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strobilanthes est un genre d'environ 250 espèces de la famille des Acanthacées. Ce sont des plantes herbacées ou ligneuses, arbustives, rampantes ou bien sarmenteuses. La plupart sont originaires d'Asie et vivent en zone tropicale, subtropicale et tempérée. Les rameaux sont caractérisés par des nœuds, plus ou moins renflés.
 En horticulture, plusieurs espèces et cultivars sont bien connus pour leur feuillages et leur floraison.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon [réf. nécessaire] :
 Strobilanthes anisophyllum
@@ -549,7 +563,7 @@
 Strobilanthes viscosa
 Strobilanthes yaruchbannum
 Strobilanthes yunnanensis Diels
-Selon NCBI  (3 Aug 2010)[1] :
+Selon NCBI  (3 Aug 2010) :
 Strobilanthes alata
 Strobilanthes anceps
 Strobilanthes andamanensis
